--- a/medicine/Psychotrope/Croix_de_saint_André_(bières)/Croix_de_saint_André_(bières).xlsx
+++ b/medicine/Psychotrope/Croix_de_saint_André_(bières)/Croix_de_saint_André_(bières).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Croix_de_saint_Andr%C3%A9_(bi%C3%A8res)</t>
+          <t>Croix_de_saint_André_(bières)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les croix de saint André indiquent traditionnellement, dans les pays anglo-saxons voire celtiques, le degré d'alcool de certaines bières.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Croix_de_saint_Andr%C3%A9_(bi%C3%A8res)</t>
+          <t>Croix_de_saint_André_(bières)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Leur origine en la matière remonte au Moyen Âge, dans les brasseries attachées aux monastères qui marquaient ainsi les bières simples, doubles ou triples etc.[1]. La notation est vraisemblablement à rapprocher des chiffres romains X, XX et XXX (voire XXXX).
-Cet usage fut renforcé au Royaume-Uni avec l'avènement des taxations au shilling sur la bière britannique comme indiqué dans le traité The Art of Brewing publié à Londres en 1829[2]. Il y est fait mention d'un « X » signifiant (10 shillings), « XX » (20 shillings) et « XXX » (30 shillings). Ces notations devinrent alors un système standard pour évaluer la force d'une bière et on trouve ainsi cette échelle[3]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Leur origine en la matière remonte au Moyen Âge, dans les brasseries attachées aux monastères qui marquaient ainsi les bières simples, doubles ou triples etc.. La notation est vraisemblablement à rapprocher des chiffres romains X, XX et XXX (voire XXXX).
+Cet usage fut renforcé au Royaume-Uni avec l'avènement des taxations au shilling sur la bière britannique comme indiqué dans le traité The Art of Brewing publié à Londres en 1829. Il y est fait mention d'un « X » signifiant (10 shillings), « XX » (20 shillings) et « XXX » (30 shillings). Ces notations devinrent alors un système standard pour évaluer la force d'une bière et on trouve ainsi cette échelle:
 X Mild Ale
 XX Mild Ale
 XXX Mild Ale
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Croix_de_saint_Andr%C3%A9_(bi%C3%A8res)</t>
+          <t>Croix_de_saint_André_(bières)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Usage actuel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Par commodité de prononciation ou par marketing, certaines marques se font souvent nommer en utilisant la lettre X plutôt que le chiffre romain. Elle est donc prononcée selon la langue utilisée: l'XXXX australienne devient « Four eX » à l'anglaise ou la XX mexicaine « Dos equis » à l'espagnole. 
 Aujourd'hui, cet usage fait partie des noms de marques utilisés dans tous les pays anglo-saxons :
